--- a/public/excelTemplates/Nhap_Chi_Tieu.xlsx
+++ b/public/excelTemplates/Nhap_Chi_Tieu.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DQ_Admin_Panel_Project\DQ_Admin_Panel\public\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5381F3-602A-4D8E-B07C-8A0455951F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90E0A7-69F5-4B1E-8974-64E8FBEC9E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56748950-8610-46D1-8F15-23048271DE89}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng nhập" sheetId="1" r:id="rId1"/>
+    <sheet name="Mẫu nhập và lưu ý" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Ngày</t>
   </si>
@@ -54,13 +55,58 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Dầu</t>
+  </si>
+  <si>
+    <t>Lưu ý chung</t>
+  </si>
+  <si>
+    <t>Axit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ nhập các dữ liệu bên trong bảng! </t>
+  </si>
+  <si>
+    <t>Bắt buộc các trường</t>
+  </si>
+  <si>
+    <t>Format: dd/mm/yyyy. Khi nhập ngày 0-/0-/yyyy, có thể nó sẽ lược bỏ số 0. Không có vấn đề, giữ nguyên!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảng 1.1 </t>
+  </si>
+  <si>
+    <t>Không được số âm. Nhập "0" nếu hàng hóa là "Lương"</t>
+  </si>
+  <si>
+    <t>Không được số âm</t>
+  </si>
+  <si>
+    <t>Ghi đánh giá hoặc lưu ý</t>
+  </si>
+  <si>
+    <t>Bảng 1.1: Tên hàng hóa</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Tên hàng hóa. Ví dụ: "Dầu"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +130,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8A7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -120,16 +213,76 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -142,11 +295,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -173,6 +332,32 @@
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,16 +378,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7715BEAD-1156-441B-A896-88C7DED95FEF}" name="Table1" displayName="Table1" ref="A1:E888" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7715BEAD-1156-441B-A896-88C7DED95FEF}" name="Table1" displayName="Table1" ref="A1:E888" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E888" xr:uid="{7715BEAD-1156-441B-A896-88C7DED95FEF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D7003B8E-95CA-47D4-933C-B223781A0E9A}" name="Ngày" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B9291821-7954-42BF-A753-57DBB4A1FA25}" name="Hàng hóa" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6E7CEC30-0237-4979-90DF-7A6FAFD78283}" name="Số lượng" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BA877386-27FB-4718-9431-BC373CB040DE}" name="Đơn giá" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A851F511-4F25-4AC6-9D2B-4EE93F72CDED}" name="Ghi chú" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D7003B8E-95CA-47D4-933C-B223781A0E9A}" name="Ngày" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B9291821-7954-42BF-A753-57DBB4A1FA25}" name="Hàng hóa" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6E7CEC30-0237-4979-90DF-7A6FAFD78283}" name="Số lượng" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BA877386-27FB-4718-9431-BC373CB040DE}" name="Đơn giá" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A851F511-4F25-4AC6-9D2B-4EE93F72CDED}" name="Ghi chú" dataDxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3F76E766-6D14-4DEB-834C-5DF1F6AA6608}" name="Table13" displayName="Table13" ref="A1:E888" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E888" xr:uid="{3F76E766-6D14-4DEB-834C-5DF1F6AA6608}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{083BD595-D79B-4CB0-8584-0DBA3EB809F6}" name="Ngày" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{66E95F61-549F-41AB-8F5E-AC9062B63734}" name="Hàng hóa" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8735B1A2-E7E4-48F9-8368-D8DF390269EA}" name="Số lượng" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{54E0B397-2CA5-485D-A2D3-085B782D08CF}" name="Đơn giá" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BEEAEF1D-7838-44CE-BBCA-8C81510D9204}" name="Ghi chú" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -523,19 +722,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394D73DA-684C-4734-8338-472EAC8A4234}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -547,23 +746,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -630,17 +829,197 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yN13/PsLILgfO7c6kZ2Yl+6ZgRAwGCUx5pmoGwdOUofgjiyW2aZvFw/yu5d9YihGA5U7qu2M2BhB2aR1wLpskQ==" saltValue="YR9TXpmlZkgweczcoLjpZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LMUlAQVuPQgqYAApQ+hiUbZ8dIQ1dn8WknNSfFp+W3pj/DW52V7cGUVC1Z9RiGOXmFByFMi9ZG7K808/0hUS4g==" saltValue="++hhItJjIsSeGn7DAKCEfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AAF98E-1A94-4439-87CD-2229D8BC06B8}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="93.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>45659</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>23000</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>45660</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>500</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y5QHuvTZOXcCcra2ufquBxfn+FygQmLBx+vyEZ92AN3zG+O6XiUZSdHkOSJXksMKNejzHMU1Pd/SrAg1x/tT4g==" saltValue="H+jBIGlz2wFV7WEaRWiRhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>